--- a/assets/TABLAS_NORMALIZADAS.xlsx
+++ b/assets/TABLAS_NORMALIZADAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Desktop\2023\SEXTO SEMESTRE\BASES 1\LABORATORIO\PROYECTO\BASES_P2_202109567\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19687CB7-A91E-430B-A5DC-1EBB9618B37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48B4433-054E-427A-A223-90852532A053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="305" xr2:uid="{18B92F73-DBB8-42B7-860A-D00A88A0B1AA}"/>
   </bookViews>
@@ -721,65 +721,22 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -792,34 +749,67 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1140,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA01231-7898-46F3-9A77-48B1D2090C7E}">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1157,2049 +1147,2126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
       <c r="D1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="B4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="7">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="33"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="29">
+        <v>28173</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="1">
+        <v>40501232</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="6">
+        <v>3560878890101</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1223</v>
+      </c>
+      <c r="L15" s="31">
+        <v>45205</v>
+      </c>
+      <c r="M15" s="32"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="29">
+        <v>26371</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="1">
+        <v>29823892</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="6">
+        <v>3589135240101</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2342</v>
+      </c>
+      <c r="L16" s="31">
+        <v>45205</v>
+      </c>
+      <c r="M16" s="32"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="29">
+        <v>28990</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="1">
+        <v>98394828</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="6">
+        <v>3011268180801</v>
+      </c>
+      <c r="K17" s="1">
+        <v>4232</v>
+      </c>
+      <c r="L17" s="31">
+        <v>45205</v>
+      </c>
+      <c r="M17" s="32"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="29">
+        <v>28157</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="1">
+        <v>93829304</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="6">
+        <v>3011568180801</v>
+      </c>
+      <c r="K18" s="1">
+        <v>8923</v>
+      </c>
+      <c r="L18" s="31">
+        <v>45205</v>
+      </c>
+      <c r="M18" s="32"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="29">
+        <v>27757</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="1">
+        <v>40592039</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="6">
+        <v>3014568180801</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2829</v>
+      </c>
+      <c r="L19" s="31">
+        <v>45205</v>
+      </c>
+      <c r="M19" s="32"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="25"/>
+      <c r="N22" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <v>202109567</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="27">
+        <v>37653</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="2">
+        <v>40584065</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="10">
+        <v>3046971840116</v>
+      </c>
+      <c r="K23" s="2">
+        <v>164</v>
+      </c>
+      <c r="L23" s="27">
+        <v>45205</v>
+      </c>
+      <c r="M23" s="26"/>
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <v>202110568</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="27">
+        <v>37702</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="2">
+        <v>22322212</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24" s="10">
+        <v>3046201440136</v>
+      </c>
+      <c r="K24" s="2">
+        <v>200</v>
+      </c>
+      <c r="L24" s="27">
+        <v>45205</v>
+      </c>
+      <c r="M24" s="26"/>
+      <c r="N24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <v>202112145</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="27">
+        <v>37902</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="2">
+        <v>23024843</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="10">
+        <v>3046201440136</v>
+      </c>
+      <c r="K25" s="2">
+        <v>198</v>
+      </c>
+      <c r="L25" s="27">
+        <v>45205</v>
+      </c>
+      <c r="M25" s="26"/>
+      <c r="N25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <v>202100239</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="27">
+        <v>37944</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="2">
+        <v>94830221</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="10">
+        <v>3046201440126</v>
+      </c>
+      <c r="K26" s="2">
+        <v>130</v>
+      </c>
+      <c r="L26" s="27">
+        <v>45205</v>
+      </c>
+      <c r="M26" s="26"/>
+      <c r="N26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <v>202110897</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="27">
+        <v>36605</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="2">
+        <v>83293848</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="10">
+        <v>3046201440166</v>
+      </c>
+      <c r="K27" s="2">
+        <v>220</v>
+      </c>
+      <c r="L27" s="27">
+        <v>45205</v>
+      </c>
+      <c r="M27" s="26"/>
+      <c r="N27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
+        <v>201901803</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="27">
+        <v>36302</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="2">
+        <v>23893821</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" s="10">
+        <v>3046201440129</v>
+      </c>
+      <c r="K28" s="2">
+        <v>15</v>
+      </c>
+      <c r="L28" s="27">
+        <v>45205</v>
+      </c>
+      <c r="M28" s="26"/>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="11">
+        <v>202000549</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="27">
+        <v>37114</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="2">
+        <v>38394019</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J29" s="10">
+        <v>3046214401309</v>
+      </c>
+      <c r="K29" s="2">
+        <v>100</v>
+      </c>
+      <c r="L29" s="27">
+        <v>45205</v>
+      </c>
+      <c r="M29" s="26"/>
+      <c r="N29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="12">
+        <v>202113553</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="27">
+        <v>37920</v>
+      </c>
+      <c r="F30" s="27"/>
+      <c r="G30" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="2">
+        <v>92038203</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="10">
+        <v>3046201440126</v>
+      </c>
+      <c r="K30" s="2">
+        <v>150</v>
+      </c>
+      <c r="L30" s="27">
+        <v>45205</v>
+      </c>
+      <c r="M30" s="26"/>
+      <c r="N30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="12">
+        <v>201900462</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="27">
+        <v>37426</v>
+      </c>
+      <c r="F31" s="27"/>
+      <c r="G31" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="2">
+        <v>29384948</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31" s="10">
+        <v>3046201440135</v>
+      </c>
+      <c r="K31" s="2">
+        <v>75</v>
+      </c>
+      <c r="L31" s="27">
+        <v>45205</v>
+      </c>
+      <c r="M31" s="26"/>
+      <c r="N31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
+        <v>202309421</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="27">
+        <v>38014</v>
+      </c>
+      <c r="F32" s="27"/>
+      <c r="G32" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="2">
+        <v>29381912</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32" s="10">
+        <v>3046201440132</v>
+      </c>
+      <c r="K32" s="2">
         <v>0</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
+      <c r="L32" s="27">
+        <v>45205</v>
+      </c>
+      <c r="M32" s="26"/>
+      <c r="N32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="7">
-        <v>3</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="7">
-        <v>4</v>
-      </c>
-      <c r="C10" s="6" t="s">
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="26">
+        <v>33</v>
+      </c>
+      <c r="F36" s="26"/>
+      <c r="G36" s="2">
         <v>9</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="22"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="15">
-        <v>28173</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="5">
-        <v>40501232</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="18">
-        <v>3560878890101</v>
-      </c>
-      <c r="K15" s="5">
-        <v>1223</v>
-      </c>
-      <c r="L15" s="14">
-        <v>45205</v>
-      </c>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="5">
-        <v>2</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="15">
-        <v>26371</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="5">
-        <v>29823892</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="18">
-        <v>3589135240101</v>
-      </c>
-      <c r="K16" s="5">
-        <v>2342</v>
-      </c>
-      <c r="L16" s="14">
-        <v>45205</v>
-      </c>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="5">
-        <v>3</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="15">
-        <v>28990</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="5">
-        <v>98394828</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="18">
-        <v>3011268180801</v>
-      </c>
-      <c r="K17" s="5">
-        <v>4232</v>
-      </c>
-      <c r="L17" s="14">
-        <v>45205</v>
-      </c>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
-        <v>4</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="15">
-        <v>28157</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="5">
-        <v>93829304</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="18">
-        <v>3011568180801</v>
-      </c>
-      <c r="K18" s="5">
-        <v>8923</v>
-      </c>
-      <c r="L18" s="14">
-        <v>45205</v>
-      </c>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="5">
-        <v>5</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="15">
-        <v>27757</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="5">
-        <v>40592039</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="18">
-        <v>3014568180801</v>
-      </c>
-      <c r="K19" s="5">
-        <v>2829</v>
-      </c>
-      <c r="L19" s="14">
-        <v>45205</v>
-      </c>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="L22" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" s="19"/>
-      <c r="N22" s="20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="7">
-        <v>202109567</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="23">
-        <v>37653</v>
-      </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="7">
-        <v>40584065</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J23" s="25">
-        <v>3046971840116</v>
-      </c>
-      <c r="K23" s="7">
-        <v>164</v>
-      </c>
-      <c r="L23" s="23">
-        <v>45205</v>
-      </c>
-      <c r="M23" s="6"/>
-      <c r="N23" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="7">
-        <v>202110568</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="23">
-        <v>37702</v>
-      </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="7">
-        <v>22322212</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J24" s="25">
-        <v>3046201440136</v>
-      </c>
-      <c r="K24" s="7">
-        <v>200</v>
-      </c>
-      <c r="L24" s="23">
-        <v>45205</v>
-      </c>
-      <c r="M24" s="6"/>
-      <c r="N24" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="7">
-        <v>202112145</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="23">
-        <v>37902</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="7">
-        <v>23024843</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" s="25">
-        <v>3046201440136</v>
-      </c>
-      <c r="K25" s="7">
-        <v>198</v>
-      </c>
-      <c r="L25" s="23">
-        <v>45205</v>
-      </c>
-      <c r="M25" s="6"/>
-      <c r="N25" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="7">
-        <v>202100239</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="23">
-        <v>37944</v>
-      </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="7">
-        <v>94830221</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J26" s="25">
-        <v>3046201440126</v>
-      </c>
-      <c r="K26" s="7">
-        <v>130</v>
-      </c>
-      <c r="L26" s="23">
-        <v>45205</v>
-      </c>
-      <c r="M26" s="6"/>
-      <c r="N26" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="7">
-        <v>202110897</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="23">
-        <v>36605</v>
-      </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
-        <v>83293848</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" s="25">
-        <v>3046201440166</v>
-      </c>
-      <c r="K27" s="7">
-        <v>220</v>
-      </c>
-      <c r="L27" s="23">
-        <v>45205</v>
-      </c>
-      <c r="M27" s="6"/>
-      <c r="N27" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="7">
-        <v>201901803</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="23">
-        <v>36302</v>
-      </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="7">
-        <v>23893821</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J28" s="25">
-        <v>3046201440129</v>
-      </c>
-      <c r="K28" s="7">
-        <v>15</v>
-      </c>
-      <c r="L28" s="23">
-        <v>45205</v>
-      </c>
-      <c r="M28" s="6"/>
-      <c r="N28" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="26">
-        <v>202000549</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="23">
-        <v>37114</v>
-      </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="7">
-        <v>38394019</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J29" s="25">
-        <v>3046214401309</v>
-      </c>
-      <c r="K29" s="7">
-        <v>100</v>
-      </c>
-      <c r="L29" s="23">
-        <v>45205</v>
-      </c>
-      <c r="M29" s="6"/>
-      <c r="N29" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="27">
-        <v>202113553</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="23">
-        <v>37920</v>
-      </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" s="7">
-        <v>92038203</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J30" s="25">
-        <v>3046201440126</v>
-      </c>
-      <c r="K30" s="7">
-        <v>150</v>
-      </c>
-      <c r="L30" s="23">
-        <v>45205</v>
-      </c>
-      <c r="M30" s="6"/>
-      <c r="N30" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="27">
-        <v>201900462</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="23">
-        <v>37426</v>
-      </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="7">
-        <v>29384948</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J31" s="25">
-        <v>3046201440135</v>
-      </c>
-      <c r="K31" s="7">
-        <v>75</v>
-      </c>
-      <c r="L31" s="23">
-        <v>45205</v>
-      </c>
-      <c r="M31" s="6"/>
-      <c r="N31" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="7">
-        <v>202309421</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="23">
-        <v>38014</v>
-      </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="H32" s="7">
-        <v>29381912</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="J32" s="25">
-        <v>3046201440132</v>
-      </c>
-      <c r="K32" s="7">
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2">
         <v>0</v>
       </c>
-      <c r="L32" s="23">
-        <v>45205</v>
-      </c>
-      <c r="M32" s="6"/>
-      <c r="N32" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I35" s="32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="7">
-        <v>1</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="6">
-        <v>33</v>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="7">
-        <v>9</v>
-      </c>
-      <c r="H36" s="7">
-        <v>1</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="7">
+      <c r="B37" s="2">
         <f>B36+1</f>
         <v>2</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="26">
         <v>33</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7">
+      <c r="F37" s="26"/>
+      <c r="G37" s="2">
         <v>5</v>
       </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-      <c r="I37" s="7">
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2">
+        <f>0+I36</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="7">
-        <f t="shared" ref="B38:B61" si="0">B37+1</f>
+      <c r="B38" s="2">
+        <f t="shared" ref="B38:B60" si="0">B37+1</f>
         <v>3</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="26">
         <v>0</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="7">
+      <c r="F38" s="26"/>
+      <c r="G38" s="2">
         <v>2</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="2">
         <v>0</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="7">
+      <c r="B39" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="26">
         <v>60</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="7">
+      <c r="F39" s="26"/>
+      <c r="G39" s="2">
         <v>6</v>
       </c>
-      <c r="H39" s="7">
-        <v>1</v>
-      </c>
-      <c r="I39" s="7">
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="7">
+      <c r="B40" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="26">
         <v>4</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="7">
+      <c r="F40" s="26"/>
+      <c r="G40" s="2">
         <v>3</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="2">
         <v>0</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="7">
+      <c r="B41" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="26">
         <v>33</v>
       </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="7">
+      <c r="F41" s="26"/>
+      <c r="G41" s="2">
         <v>5</v>
       </c>
-      <c r="H41" s="7">
-        <v>1</v>
-      </c>
-      <c r="I41" s="7">
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="7">
+      <c r="B42" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="26">
         <v>33</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="7">
+      <c r="F42" s="26"/>
+      <c r="G42" s="2">
         <v>3</v>
       </c>
-      <c r="H42" s="7">
-        <v>1</v>
-      </c>
-      <c r="I42" s="7">
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="7">
+      <c r="B43" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="26">
         <v>90</v>
       </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="7">
+      <c r="F43" s="26"/>
+      <c r="G43" s="2">
         <v>6</v>
       </c>
-      <c r="H43" s="7">
-        <v>1</v>
-      </c>
-      <c r="I43" s="7">
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+      <c r="I43" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="7">
+      <c r="B44" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="26">
         <v>90</v>
       </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="7">
+      <c r="F44" s="26"/>
+      <c r="G44" s="2">
         <v>6</v>
       </c>
-      <c r="H44" s="7">
-        <v>1</v>
-      </c>
-      <c r="I44" s="7">
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="7">
+      <c r="B45" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="26">
         <v>170</v>
       </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="7">
+      <c r="F45" s="26"/>
+      <c r="G45" s="2">
         <v>7</v>
       </c>
-      <c r="H45" s="7">
-        <v>1</v>
-      </c>
-      <c r="I45" s="7">
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="7">
+      <c r="B46" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="26">
         <v>65</v>
       </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="7">
+      <c r="F46" s="26"/>
+      <c r="G46" s="2">
         <v>4</v>
       </c>
-      <c r="H46" s="7">
-        <v>1</v>
-      </c>
-      <c r="I46" s="7">
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="7">
+      <c r="B47" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="26">
         <v>90</v>
       </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="7">
+      <c r="F47" s="26"/>
+      <c r="G47" s="2">
         <v>3</v>
       </c>
-      <c r="H47" s="7">
-        <v>1</v>
-      </c>
-      <c r="I47" s="7">
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="7">
+      <c r="B48" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="26">
         <v>0</v>
       </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="7">
+      <c r="F48" s="26"/>
+      <c r="G48" s="2">
         <v>3</v>
       </c>
-      <c r="H48" s="7">
-        <v>1</v>
-      </c>
-      <c r="I48" s="7">
+      <c r="H48" s="2">
+        <v>1</v>
+      </c>
+      <c r="I48" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B49" s="7">
+      <c r="B49" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="26">
         <v>100</v>
       </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="7">
+      <c r="F49" s="26"/>
+      <c r="G49" s="2">
         <v>6</v>
       </c>
-      <c r="H49" s="7">
-        <v>1</v>
-      </c>
-      <c r="I49" s="7">
+      <c r="H49" s="2">
+        <v>1</v>
+      </c>
+      <c r="I49" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B50" s="7">
+      <c r="B50" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="26">
         <v>150</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="7">
+      <c r="F50" s="26"/>
+      <c r="G50" s="2">
         <v>3</v>
       </c>
-      <c r="H50" s="7">
-        <v>1</v>
-      </c>
-      <c r="I50" s="7">
+      <c r="H50" s="2">
+        <v>1</v>
+      </c>
+      <c r="I50" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B51" s="7">
+      <c r="B51" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="26">
         <v>180</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="7">
+      <c r="F51" s="26"/>
+      <c r="G51" s="2">
         <v>3</v>
       </c>
-      <c r="H51" s="7">
-        <v>1</v>
-      </c>
-      <c r="I51" s="7">
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+      <c r="I51" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B52" s="7">
+      <c r="B52" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="26">
         <v>200</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="7">
+      <c r="F52" s="26"/>
+      <c r="G52" s="2">
         <v>6</v>
       </c>
-      <c r="H52" s="7">
-        <v>1</v>
-      </c>
-      <c r="I52" s="7">
+      <c r="H52" s="2">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B53" s="7">
+      <c r="B53" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="26">
         <v>200</v>
       </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="7">
+      <c r="F53" s="26"/>
+      <c r="G53" s="2">
         <v>4</v>
       </c>
-      <c r="H53" s="7">
-        <v>1</v>
-      </c>
-      <c r="I53" s="7">
+      <c r="H53" s="2">
+        <v>1</v>
+      </c>
+      <c r="I53" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B54" s="7">
+      <c r="B54" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="26">
         <v>240</v>
       </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="7">
+      <c r="F54" s="26"/>
+      <c r="G54" s="2">
         <v>6</v>
       </c>
-      <c r="H54" s="7">
-        <v>1</v>
-      </c>
-      <c r="I54" s="7">
+      <c r="H54" s="2">
+        <v>1</v>
+      </c>
+      <c r="I54" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B55" s="7">
+      <c r="B55" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="26">
         <v>190</v>
       </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="7">
+      <c r="F55" s="26"/>
+      <c r="G55" s="2">
         <v>3</v>
       </c>
-      <c r="H55" s="7">
-        <v>1</v>
-      </c>
-      <c r="I55" s="7">
+      <c r="H55" s="2">
+        <v>1</v>
+      </c>
+      <c r="I55" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B56" s="7">
+      <c r="B56" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="26">
         <v>0</v>
       </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="7">
+      <c r="F56" s="26"/>
+      <c r="G56" s="2">
         <v>6</v>
       </c>
-      <c r="H56" s="7">
-        <v>1</v>
-      </c>
-      <c r="I56" s="7">
+      <c r="H56" s="2">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B57" s="7">
+      <c r="B57" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="26">
         <v>33</v>
       </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="7">
+      <c r="F57" s="26"/>
+      <c r="G57" s="2">
         <v>6</v>
       </c>
-      <c r="H57" s="7">
-        <v>1</v>
-      </c>
-      <c r="I57" s="7">
+      <c r="H57" s="2">
+        <v>1</v>
+      </c>
+      <c r="I57" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B58" s="7">
+      <c r="B58" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="26">
         <v>60</v>
       </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="7">
+      <c r="F58" s="26"/>
+      <c r="G58" s="2">
         <v>6</v>
       </c>
-      <c r="H58" s="7">
-        <v>1</v>
-      </c>
-      <c r="I58" s="7">
+      <c r="H58" s="2">
+        <v>1</v>
+      </c>
+      <c r="I58" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B59" s="7">
+      <c r="B59" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="26">
         <v>160</v>
       </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="7">
+      <c r="F59" s="26"/>
+      <c r="G59" s="2">
         <v>5</v>
       </c>
-      <c r="H59" s="7">
-        <v>1</v>
-      </c>
-      <c r="I59" s="7">
+      <c r="H59" s="2">
+        <v>1</v>
+      </c>
+      <c r="I59" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B60" s="7">
+      <c r="B60" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="26">
         <v>60</v>
       </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="7">
+      <c r="F60" s="26"/>
+      <c r="G60" s="2">
         <v>6</v>
       </c>
-      <c r="H60" s="7">
-        <v>1</v>
-      </c>
-      <c r="I60" s="7">
+      <c r="H60" s="2">
+        <v>1</v>
+      </c>
+      <c r="I60" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="J62" s="10" t="s">
+      <c r="J62" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="K62" s="12"/>
+      <c r="K62" s="22"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="J63" s="9" t="s">
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="J63" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="K63" s="9" t="s">
+      <c r="K63" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="9" t="s">
+      <c r="C64" s="23"/>
+      <c r="D64" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="F64" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="G64" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="H64" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J64" s="7">
-        <v>1</v>
-      </c>
-      <c r="K64" s="32" t="s">
+      <c r="J64" s="2">
+        <v>1</v>
+      </c>
+      <c r="K64" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="M64" s="31" t="s">
+      <c r="M64" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="N64" s="31"/>
+      <c r="N64" s="19"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="6">
-        <v>1</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="7">
+      <c r="B65" s="26">
+        <v>1</v>
+      </c>
+      <c r="C65" s="26"/>
+      <c r="D65" s="2">
         <v>110</v>
       </c>
-      <c r="E65" s="7">
-        <v>1</v>
-      </c>
-      <c r="F65" s="7">
-        <v>1</v>
-      </c>
-      <c r="G65" s="7">
-        <v>1</v>
-      </c>
-      <c r="H65" s="7">
-        <v>1</v>
-      </c>
-      <c r="J65" s="7">
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1</v>
+      </c>
+      <c r="J65" s="2">
         <v>2</v>
       </c>
-      <c r="K65" s="7" t="s">
+      <c r="K65" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="6">
+      <c r="B66" s="26">
         <v>2</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="7">
+      <c r="C66" s="26"/>
+      <c r="D66" s="2">
         <v>110</v>
       </c>
-      <c r="E66" s="7">
-        <v>1</v>
-      </c>
-      <c r="F66" s="7">
+      <c r="E66" s="2">
+        <v>1</v>
+      </c>
+      <c r="F66" s="2">
         <v>2</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="2">
         <v>2</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H66" s="2">
         <v>3</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J66" s="2">
         <v>3</v>
       </c>
-      <c r="K66" s="7" t="s">
+      <c r="K66" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="6">
+      <c r="B67" s="26">
         <v>3</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="7">
+      <c r="C67" s="26"/>
+      <c r="D67" s="2">
         <v>110</v>
       </c>
-      <c r="E67" s="7">
-        <v>1</v>
-      </c>
-      <c r="F67" s="7">
-        <v>1</v>
-      </c>
-      <c r="G67" s="7">
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1</v>
+      </c>
+      <c r="G67" s="2">
         <v>9</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H67" s="2">
         <v>2</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J67" s="2">
         <v>4</v>
       </c>
-      <c r="K67" s="7" t="s">
+      <c r="K67" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="6">
+      <c r="B68" s="26">
         <v>4</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="7">
+      <c r="C68" s="26"/>
+      <c r="D68" s="2">
         <v>110</v>
       </c>
-      <c r="E68" s="7">
-        <v>1</v>
-      </c>
-      <c r="F68" s="7">
-        <v>1</v>
-      </c>
-      <c r="G68" s="7">
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2">
         <v>8</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H68" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="6">
+      <c r="B69" s="26">
         <v>5</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="7">
+      <c r="C69" s="26"/>
+      <c r="D69" s="2">
         <v>110</v>
       </c>
-      <c r="E69" s="7">
-        <v>1</v>
-      </c>
-      <c r="F69" s="7">
-        <v>1</v>
-      </c>
-      <c r="G69" s="7">
+      <c r="E69" s="2">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2">
+        <v>1</v>
+      </c>
+      <c r="G69" s="2">
         <v>10</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H69" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="J70" s="10" t="s">
+      <c r="J70" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="K70" s="12"/>
+      <c r="K70" s="22"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="J71" s="9" t="s">
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="J71" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="K71" s="9" t="s">
+      <c r="K71" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="J72" s="7">
-        <v>1</v>
-      </c>
-      <c r="K72" s="32" t="s">
+      <c r="J72" s="2">
+        <v>1</v>
+      </c>
+      <c r="K72" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="7">
-        <v>1</v>
-      </c>
-      <c r="C73" s="7">
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2">
         <v>3</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J73" s="7">
+      <c r="J73" s="2">
         <v>2</v>
       </c>
-      <c r="K73" s="7" t="s">
+      <c r="K73" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B74" s="7">
+      <c r="B74" s="2">
         <v>2</v>
       </c>
-      <c r="C74" s="7">
-        <v>1</v>
-      </c>
-      <c r="D74" s="7" t="s">
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J74" s="2">
         <v>3</v>
       </c>
-      <c r="K74" s="7" t="s">
+      <c r="K74" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="7">
+      <c r="B75" s="2">
         <v>3</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="2">
         <v>2</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="J75" s="7">
+      <c r="J75" s="2">
         <v>4</v>
       </c>
-      <c r="K75" s="7" t="s">
+      <c r="K75" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="7">
+      <c r="B76" s="2">
         <v>4</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="2">
         <v>5</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="J76" s="29">
+      <c r="J76" s="2">
         <v>5</v>
       </c>
-      <c r="K76" s="29" t="s">
+      <c r="K76" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="7">
+      <c r="B77" s="2">
         <v>5</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="2">
         <v>4</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="19" t="s">
+      <c r="B79" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="37"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="D80" s="8"/>
-      <c r="E80" s="9" t="s">
+      <c r="D80" s="23"/>
+      <c r="E80" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F80" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I80" s="10" t="s">
+      <c r="I80" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="J80" s="11"/>
-      <c r="K80" s="12"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="22"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="7">
-        <v>1</v>
-      </c>
-      <c r="C81" s="6" t="s">
+      <c r="B81" s="2">
+        <v>1</v>
+      </c>
+      <c r="C81" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="7">
-        <v>1</v>
-      </c>
-      <c r="F81" s="7">
+      <c r="D81" s="26"/>
+      <c r="E81" s="2">
+        <v>1</v>
+      </c>
+      <c r="F81" s="2">
         <v>202109567</v>
       </c>
-      <c r="I81" s="9" t="s">
+      <c r="I81" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J81" s="33" t="s">
+      <c r="J81" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="K81" s="33"/>
+      <c r="K81" s="23"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="7">
+      <c r="B82" s="2">
         <v>2</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="7">
-        <v>1</v>
-      </c>
-      <c r="F82" s="7">
+      <c r="D82" s="26"/>
+      <c r="E82" s="2">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2">
         <v>202309421</v>
       </c>
-      <c r="I82" s="7">
-        <v>1</v>
-      </c>
-      <c r="J82" s="6">
+      <c r="I82" s="2">
+        <v>1</v>
+      </c>
+      <c r="J82" s="26">
         <v>9</v>
       </c>
-      <c r="K82" s="6"/>
+      <c r="K82" s="26"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="7">
+      <c r="B83" s="2">
         <v>3</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="7">
+      <c r="D83" s="26"/>
+      <c r="E83" s="2">
         <v>2</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" s="2">
         <v>202100239</v>
       </c>
-      <c r="I83" s="7">
+      <c r="I83" s="2">
         <v>2</v>
       </c>
-      <c r="J83" s="6">
-        <v>1</v>
-      </c>
-      <c r="K83" s="6"/>
+      <c r="J83" s="26">
+        <v>1</v>
+      </c>
+      <c r="K83" s="26"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="7">
+      <c r="B84" s="2">
         <v>4</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="7">
+      <c r="D84" s="26"/>
+      <c r="E84" s="2">
         <v>2</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" s="2">
         <v>202110568</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I84" s="2">
         <v>3</v>
       </c>
-      <c r="J84" s="6">
+      <c r="J84" s="26">
         <v>2</v>
       </c>
-      <c r="K84" s="6"/>
+      <c r="K84" s="26"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="7">
+      <c r="B85" s="2">
         <v>5</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="D85" s="6"/>
-      <c r="E85" s="7">
+      <c r="D85" s="26"/>
+      <c r="E85" s="2">
         <v>3</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="2">
         <v>202112145</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I85" s="2">
         <v>4</v>
       </c>
-      <c r="J85" s="6">
-        <v>1</v>
-      </c>
-      <c r="K85" s="6"/>
+      <c r="J85" s="26">
+        <v>1</v>
+      </c>
+      <c r="K85" s="26"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="7">
+      <c r="B86" s="2">
         <v>6</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="7">
+      <c r="D86" s="26"/>
+      <c r="E86" s="2">
         <v>3</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="2">
         <v>202110897</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I86" s="2">
         <v>5</v>
       </c>
-      <c r="J86" s="6">
+      <c r="J86" s="26">
         <v>2</v>
       </c>
-      <c r="K86" s="6"/>
+      <c r="K86" s="26"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B87" s="7">
+      <c r="B87" s="2">
         <v>7</v>
       </c>
-      <c r="C87" s="23">
+      <c r="C87" s="27">
         <v>45205</v>
       </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="7">
+      <c r="D87" s="26"/>
+      <c r="E87" s="2">
         <v>2</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87" s="2">
         <v>201901803</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="7">
+      <c r="B88" s="2">
         <v>8</v>
       </c>
-      <c r="C88" s="23">
+      <c r="C88" s="27">
         <v>45205</v>
       </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="7">
+      <c r="D88" s="26"/>
+      <c r="E88" s="2">
         <v>2</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88" s="2">
         <v>201901803</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D89" s="28"/>
+      <c r="D89" s="13"/>
       <c r="I89" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B90" s="35" t="s">
+      <c r="B90" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C90" s="35"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="34"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B91" s="20" t="s">
+      <c r="B91" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C91" s="32" t="s">
+      <c r="C91" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D91" s="32" t="s">
+      <c r="D91" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B92" s="5">
-        <v>1</v>
-      </c>
-      <c r="C92" s="5">
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1">
         <v>55</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B93" s="5">
+      <c r="B93" s="1">
         <v>2</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="1">
         <v>61</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B94" s="5">
+      <c r="B94" s="1">
         <v>3</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="1">
         <v>85</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B95" s="5">
+      <c r="B95" s="1">
         <v>4</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="1">
         <v>72</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B96" s="5">
+      <c r="B96" s="1">
         <v>5</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="1">
         <v>92</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B97" s="5">
+      <c r="B97" s="1">
         <v>6</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="1">
         <v>65</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="19" t="s">
+      <c r="B99" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="20" t="s">
+      <c r="B100" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D100" s="20" t="s">
+      <c r="D100" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B101" s="5">
-        <v>1</v>
-      </c>
-      <c r="C101" s="36">
+      <c r="B101" s="1">
+        <v>1</v>
+      </c>
+      <c r="C101" s="16">
         <v>45260</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D101" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B102" s="5">
+      <c r="B102" s="1">
         <v>2</v>
       </c>
-      <c r="C102" s="36">
+      <c r="C102" s="16">
         <v>45260</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="5">
+      <c r="B103" s="1">
         <v>3</v>
       </c>
-      <c r="C103" s="36">
+      <c r="C103" s="16">
         <v>45260</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="5">
+      <c r="B104" s="1">
         <v>4</v>
       </c>
-      <c r="C104" s="36">
+      <c r="C104" s="16">
         <v>45260</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="5">
+      <c r="B105" s="1">
         <v>5</v>
       </c>
-      <c r="C105" s="36">
+      <c r="C105" s="16">
         <v>45260</v>
       </c>
-      <c r="D105" s="5">
+      <c r="D105" s="1">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="102">
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="B21:N21"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
     <mergeCell ref="M64:N64"/>
     <mergeCell ref="I80:K80"/>
     <mergeCell ref="B71:D71"/>
@@ -3224,84 +3291,6 @@
     <mergeCell ref="J81:K81"/>
     <mergeCell ref="J82:K82"/>
     <mergeCell ref="J83:K83"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="B21:N21"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
